--- a/data/Electricity_summary_table_2.xlsx
+++ b/data/Electricity_summary_table_2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,111 +8,117 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\sweden-electrification-committee\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3FD89772-CDE4-4781-B964-A6C7AAD2CD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52710129-40D7-4520-8C39-74ECDE7B6CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity_summary_table_2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">Stockholms </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uppsala </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Södermanlands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Östergötlands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jönköpings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kronobergs 1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalmar 1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gottlands 1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blekinge </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kristianstads </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malmöhus 1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hallands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Göteborgs och Bohus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alvsborgs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skaraborgs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Värmlands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Örebro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Västmanlands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kopparbergs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gavleborgs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Västernorrlands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jämtlands </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vasterbottens 1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norrbottens¹ </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Summa för hela landet </t>
   </si>
   <si>
-    <t>check row</t>
+    <t>Stockholms</t>
   </si>
   <si>
-    <t xml:space="preserve">. - </t>
+    <t>Uppsala</t>
+  </si>
+  <si>
+    <t>Södermanlands</t>
+  </si>
+  <si>
+    <t>Östergötlands</t>
+  </si>
+  <si>
+    <t>Jönköpings</t>
+  </si>
+  <si>
+    <t>Kronobergs</t>
+  </si>
+  <si>
+    <t>Kalmar</t>
+  </si>
+  <si>
+    <t>Gotlands</t>
+  </si>
+  <si>
+    <t>Blekinge</t>
+  </si>
+  <si>
+    <t>Kristianstads</t>
+  </si>
+  <si>
+    <t>Malmöhus</t>
+  </si>
+  <si>
+    <t>Hallands</t>
+  </si>
+  <si>
+    <t>Göteborgs och Bohus</t>
+  </si>
+  <si>
+    <t>Älvsborgs</t>
+  </si>
+  <si>
+    <t>Skaraborgs</t>
+  </si>
+  <si>
+    <t>Värmlands</t>
+  </si>
+  <si>
+    <t>Örebro</t>
+  </si>
+  <si>
+    <t>Västmanlands</t>
+  </si>
+  <si>
+    <t>Kopparbergs</t>
+  </si>
+  <si>
+    <t>Gävleborgs</t>
+  </si>
+  <si>
+    <t>Västernorrlands</t>
+  </si>
+  <si>
+    <t>Jämtlands</t>
+  </si>
+  <si>
+    <t>Västerbottens</t>
+  </si>
+  <si>
+    <t>Norrbottens</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -592,10 +598,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -951,27 +956,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -1068,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>22</v>
@@ -1100,54 +1119,32 @@
       <c r="L2" s="1">
         <v>150</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="M2" s="1"/>
       <c r="N2" s="1">
         <v>1900</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="O2" s="1"/>
       <c r="P2" s="1">
         <v>63400</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q2" s="1"/>
       <c r="R2" s="1">
         <v>190</v>
       </c>
       <c r="S2" s="1">
         <v>4660</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
       <c r="AA2" s="1">
         <v>1500</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB2" s="1"/>
       <c r="AC2" s="1">
         <v>71800</v>
       </c>
@@ -1180,63 +1177,33 @@
       <c r="I3" s="1">
         <v>98580</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="J3" s="1"/>
       <c r="K3" s="1">
         <v>220</v>
       </c>
       <c r="L3" s="1">
         <v>100</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="M3" s="1"/>
       <c r="N3" s="1">
         <v>38300</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="O3" s="1"/>
       <c r="P3" s="1">
         <v>65500</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
       <c r="AC3" s="1">
         <v>98900</v>
       </c>
@@ -1272,15 +1239,11 @@
       <c r="J4" s="1">
         <v>1450</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1">
         <v>100</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="M4" s="1"/>
       <c r="N4" s="1">
         <v>16520</v>
       </c>
@@ -1299,33 +1262,17 @@
       <c r="S4" s="1">
         <v>1200</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
       <c r="AA4" s="1">
         <v>550</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB4" s="1"/>
       <c r="AC4" s="1">
         <v>91100</v>
       </c>
@@ -1352,9 +1299,7 @@
       <c r="G5" s="1">
         <v>6000</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1">
         <v>40000</v>
       </c>
@@ -1364,18 +1309,14 @@
       <c r="K5" s="1">
         <v>1600</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1">
         <v>160</v>
       </c>
       <c r="N5" s="1">
         <v>3360</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="O5" s="1"/>
       <c r="P5" s="1">
         <v>37200</v>
       </c>
@@ -1391,30 +1332,18 @@
       <c r="T5" s="1">
         <v>880</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
       <c r="W5" s="1">
         <v>19600</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
       <c r="AA5" s="1">
         <v>6800</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB5" s="1"/>
       <c r="AC5" s="1">
         <v>80000</v>
       </c>
@@ -1450,15 +1379,11 @@
       <c r="J6" s="1">
         <v>39450</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1">
         <v>10160</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="1">
         <v>14980</v>
       </c>
@@ -1477,27 +1402,15 @@
       <c r="S6" s="1">
         <v>2460</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
       <c r="W6" s="1">
         <v>19700</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
       <c r="AA6" s="1">
         <v>3420</v>
       </c>
@@ -1566,33 +1479,19 @@
       <c r="S7" s="1">
         <v>7125</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
       <c r="W7" s="1">
         <v>2400</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
       <c r="AA7" s="1">
         <v>4175</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB7" s="1"/>
       <c r="AC7" s="1">
         <v>25000</v>
       </c>
@@ -1634,9 +1533,7 @@
       <c r="L8" s="1">
         <v>10290</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="M8" s="1"/>
       <c r="N8" s="1">
         <v>5190</v>
       </c>
@@ -1646,42 +1543,24 @@
       <c r="P8" s="1">
         <v>1980</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
       <c r="S8" s="1">
         <v>7860</v>
       </c>
       <c r="T8" s="1">
         <v>420</v>
       </c>
-      <c r="U8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
       <c r="W8" s="1">
         <v>4140</v>
       </c>
-      <c r="X8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
       <c r="AC8" s="1">
         <v>30000</v>
       </c>
@@ -1715,58 +1594,28 @@
       <c r="J9" s="1">
         <v>500</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="K9" s="1"/>
       <c r="L9" s="1">
         <v>500</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="O9" s="1"/>
       <c r="P9" s="1">
         <v>500</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
       <c r="AC9" s="1">
         <v>1000</v>
       </c>
@@ -1808,54 +1657,32 @@
       <c r="L10" s="1">
         <v>1210</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="M10" s="1"/>
       <c r="N10" s="1">
         <v>7540</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="O10" s="1"/>
       <c r="P10" s="1">
         <v>1150</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q10" s="1"/>
       <c r="R10" s="1">
         <v>350</v>
       </c>
       <c r="S10" s="1">
         <v>7250</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
       <c r="W10" s="1">
         <v>1200</v>
       </c>
-      <c r="X10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
       <c r="AC10" s="1">
         <v>18700</v>
       </c>
@@ -1918,33 +1745,17 @@
       <c r="S11" s="1">
         <v>12930</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
       <c r="AA11" s="1">
         <v>4670</v>
       </c>
-      <c r="AB11" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB11" s="1"/>
       <c r="AC11" s="1">
         <v>67400</v>
       </c>
@@ -1971,9 +1782,7 @@
       <c r="G12" s="1">
         <v>3200</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1">
         <v>45000</v>
       </c>
@@ -1983,18 +1792,12 @@
       <c r="K12" s="1">
         <v>40500</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="1">
         <v>30500</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="O12" s="1"/>
       <c r="P12" s="1">
         <v>27400</v>
       </c>
@@ -2004,36 +1807,22 @@
       <c r="R12" s="1">
         <v>5600</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
       <c r="V12" s="1">
         <v>13900</v>
       </c>
       <c r="W12" s="1">
         <v>1100</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
       <c r="AA12" s="1">
         <v>36700</v>
       </c>
-      <c r="AB12" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB12" s="1"/>
       <c r="AC12" s="1">
         <v>118700</v>
       </c>
@@ -2081,9 +1870,7 @@
       <c r="N13" s="1">
         <v>12250</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="O13" s="1"/>
       <c r="P13" s="1">
         <v>8200</v>
       </c>
@@ -2096,33 +1883,21 @@
       <c r="S13" s="1">
         <v>3150</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
       <c r="W13" s="1">
         <v>25500</v>
       </c>
       <c r="X13" s="1">
         <v>400</v>
       </c>
-      <c r="Y13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
       <c r="AA13" s="1">
         <v>1000</v>
       </c>
-      <c r="AB13" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB13" s="1"/>
       <c r="AC13" s="1">
         <v>65300</v>
       </c>
@@ -2158,60 +1933,34 @@
       <c r="J14" s="1">
         <v>14800</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="K14" s="1"/>
       <c r="L14" s="1">
         <v>100</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="M14" s="1"/>
       <c r="N14" s="1">
         <v>800</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="O14" s="1"/>
       <c r="P14" s="1">
         <v>10000</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
       <c r="S14" s="1">
         <v>250</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
       <c r="W14" s="1">
         <v>3850</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
       <c r="AC14" s="1">
         <v>15000</v>
       </c>
@@ -2247,9 +1996,7 @@
       <c r="J15" s="1">
         <v>45700</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="K15" s="1"/>
       <c r="L15" s="1">
         <v>2000</v>
       </c>
@@ -2265,9 +2012,7 @@
       <c r="P15" s="1">
         <v>28200</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q15" s="1"/>
       <c r="R15" s="1">
         <v>1100</v>
       </c>
@@ -2277,30 +2022,18 @@
       <c r="T15" s="1">
         <v>400</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
       <c r="W15" s="1">
         <v>20100</v>
       </c>
       <c r="X15" s="1">
         <v>2900</v>
       </c>
-      <c r="Y15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
       <c r="AC15" s="1">
         <v>58700</v>
       </c>
@@ -2354,42 +2087,26 @@
       <c r="P16" s="1">
         <v>38700</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q16" s="1"/>
       <c r="R16" s="1">
         <v>3200</v>
       </c>
       <c r="S16" s="1">
         <v>3900</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
       <c r="W16" s="1">
         <v>79100</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
       <c r="AA16" s="1">
         <v>160</v>
       </c>
-      <c r="AB16" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB16" s="1"/>
       <c r="AC16" s="1">
         <v>135000</v>
       </c>
@@ -2455,24 +2172,16 @@
       <c r="T17" s="1">
         <v>3450</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
       <c r="W17" s="1">
         <v>46725</v>
       </c>
       <c r="X17" s="1">
         <v>8650</v>
       </c>
-      <c r="Y17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
       <c r="AA17" s="1">
         <v>250</v>
       </c>
@@ -2514,9 +2223,7 @@
       <c r="J18" s="1">
         <v>45400</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="K18" s="1"/>
       <c r="L18" s="1">
         <v>2100</v>
       </c>
@@ -2532,9 +2239,7 @@
       <c r="P18" s="1">
         <v>36100</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q18" s="1"/>
       <c r="R18" s="1">
         <v>1100</v>
       </c>
@@ -2544,30 +2249,20 @@
       <c r="T18" s="1">
         <v>1550</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="U18" s="1"/>
       <c r="V18" s="1">
         <v>800</v>
       </c>
       <c r="W18" s="1">
         <v>9650</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
       <c r="AA18" s="1">
         <v>3450</v>
       </c>
-      <c r="AB18" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB18" s="1"/>
       <c r="AC18" s="1">
         <v>70000</v>
       </c>
@@ -2603,15 +2298,11 @@
       <c r="J19" s="1">
         <v>300</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="K19" s="1"/>
       <c r="L19" s="1">
         <v>300</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="M19" s="1"/>
       <c r="N19" s="1">
         <v>21400</v>
       </c>
@@ -2621,42 +2312,22 @@
       <c r="P19" s="1">
         <v>66200</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
       <c r="S19" s="1">
         <v>3300</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
       <c r="Y19" s="1">
         <v>400</v>
       </c>
-      <c r="Z19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
       <c r="AC19" s="1">
         <v>91700</v>
       </c>
@@ -2701,12 +2372,8 @@
       <c r="M20" s="1">
         <v>300</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
       <c r="P20" s="1">
         <v>15220</v>
       </c>
@@ -2725,27 +2392,17 @@
       <c r="U20" s="1">
         <v>1500</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="V20" s="1"/>
       <c r="W20" s="1">
         <v>29760</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
       <c r="AA20" s="1">
         <v>1560</v>
       </c>
-      <c r="AB20" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB20" s="1"/>
       <c r="AC20" s="1">
         <v>70300</v>
       </c>
@@ -2790,9 +2447,7 @@
       <c r="M21" s="1">
         <v>475</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="N21" s="1"/>
       <c r="O21" s="1">
         <v>1925</v>
       </c>
@@ -2814,27 +2469,19 @@
       <c r="U21" s="1">
         <v>1200</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="V21" s="1"/>
       <c r="W21" s="1">
         <v>14350</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
       <c r="Z21" s="1">
         <v>350</v>
       </c>
       <c r="AA21" s="1">
         <v>3000</v>
       </c>
-      <c r="AB21" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB21" s="1"/>
       <c r="AC21" s="1">
         <v>64600</v>
       </c>
@@ -2879,51 +2526,35 @@
       <c r="M22" s="1">
         <v>250</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="N22" s="1"/>
       <c r="O22" s="1">
         <v>450</v>
       </c>
       <c r="P22" s="1">
         <v>4850</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q22" s="1"/>
       <c r="R22" s="1">
         <v>2100</v>
       </c>
       <c r="S22" s="1">
         <v>13100</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
       <c r="W22" s="1">
         <v>23150</v>
       </c>
       <c r="X22" s="1">
         <v>2600</v>
       </c>
-      <c r="Y22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
       <c r="AA22" s="1">
         <v>4400</v>
       </c>
-      <c r="AB22" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB22" s="1"/>
       <c r="AC22" s="1">
         <v>57200</v>
       </c>
@@ -2959,60 +2590,38 @@
       <c r="J23" s="1">
         <v>14300</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="K23" s="1"/>
       <c r="L23" s="1">
         <v>4600</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
       <c r="P23" s="1">
         <v>1600</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q23" s="1"/>
       <c r="R23" s="1">
         <v>700</v>
       </c>
       <c r="S23" s="1">
         <v>9600</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
       <c r="W23" s="1">
         <v>18000</v>
       </c>
       <c r="X23" s="1">
         <v>6000</v>
       </c>
-      <c r="Y23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
       <c r="AA23" s="1">
         <v>5500</v>
       </c>
-      <c r="AB23" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB23" s="1"/>
       <c r="AC23" s="1">
         <v>46000</v>
       </c>
@@ -3057,45 +2666,31 @@
       <c r="M24" s="1">
         <v>440</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="N24" s="1"/>
       <c r="O24" s="1">
         <v>160</v>
       </c>
       <c r="P24" s="1">
         <v>6700</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q24" s="1"/>
       <c r="R24" s="1">
         <v>1600</v>
       </c>
       <c r="S24" s="1">
         <v>5500</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
       <c r="W24" s="1">
         <v>26000</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="X24" s="1"/>
       <c r="Y24" s="1">
         <v>900</v>
       </c>
-      <c r="Z24" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Z24" s="1"/>
       <c r="AA24" s="1">
         <v>5400</v>
       </c>
@@ -3137,60 +2732,36 @@
       <c r="J25" s="1">
         <v>17600</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="K25" s="1"/>
       <c r="L25" s="1">
         <v>600</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
       <c r="P25" s="1">
         <v>600</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q25" s="1"/>
       <c r="R25" s="1">
         <v>300</v>
       </c>
       <c r="S25" s="1">
         <v>600</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
       <c r="W25" s="1">
         <v>15500</v>
       </c>
-      <c r="X25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
       <c r="AA25" s="1">
         <v>14400</v>
       </c>
-      <c r="AB25" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB25" s="1"/>
       <c r="AC25" s="1">
         <v>32000</v>
       </c>
@@ -3200,7 +2771,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
         <v>2377</v>
@@ -3286,7 +2857,7 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1">
         <f>SUM(C2:C25)</f>
@@ -3336,173 +2907,173 @@
         <f t="shared" si="0"/>
         <v>207680</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="1">
         <f>SUM(O2:O25)</f>
         <v>14780</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P27" s="1">
         <f t="shared" ref="P27:AC27" si="1">SUM(P2:P25)</f>
         <v>529425</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q27" s="1">
         <f t="shared" si="1"/>
         <v>9805</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="1">
         <f t="shared" si="1"/>
         <v>45325</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="1">
         <f t="shared" si="1"/>
         <v>129890</v>
       </c>
-      <c r="T27" s="2">
+      <c r="T27" s="1">
         <f t="shared" si="1"/>
         <v>11690</v>
       </c>
-      <c r="U27" s="2">
+      <c r="U27" s="1">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="V27" s="2">
+      <c r="V27" s="1">
         <f t="shared" si="1"/>
         <v>14700</v>
       </c>
-      <c r="W27" s="2">
+      <c r="W27" s="1">
         <f t="shared" si="1"/>
         <v>359825</v>
       </c>
-      <c r="X27" s="2">
+      <c r="X27" s="1">
         <f t="shared" si="1"/>
         <v>20550</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="Y27" s="1">
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="Z27" s="1">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="AA27" s="2">
+      <c r="AA27" s="1">
         <f t="shared" si="1"/>
         <v>96935</v>
       </c>
-      <c r="AB27" s="2">
+      <c r="AB27" s="1">
         <f t="shared" si="1"/>
         <v>1115</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AC27" s="1">
         <f t="shared" si="1"/>
         <v>1536100</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <f>C27-C26</f>
         <v>0</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <f t="shared" ref="D28:N28" si="2">D27-D26</f>
         <v>0</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="1">
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="1">
         <f>O27-O26</f>
         <v>0</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="1">
         <f t="shared" ref="P28:AC28" si="3">P27-P26</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T28" s="2">
+      <c r="T28" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U28" s="2">
+      <c r="U28" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V28" s="2">
+      <c r="V28" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W28" s="2">
+      <c r="W28" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X28" s="2">
+      <c r="X28" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="Y28" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="Z28" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AA28" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="2">
+      <c r="AB28" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AC28" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
